--- a/biology/Zoologie/Babe,_le_cochon_dans_la_ville/Babe,_le_cochon_dans_la_ville.xlsx
+++ b/biology/Zoologie/Babe,_le_cochon_dans_la_ville/Babe,_le_cochon_dans_la_ville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Babe, le cochon dans la ville ou Babe - un cochon dans la ville au Québec (Babe: Pig in the City) est un film australo-américain réalisé par George Miller et sorti en 1998. Il fait suite à Babe, le cochon devenu berger (1995) de Chris Noonan.
 Bien que le film obtient des critiques positives, il n’obtient pas un succès commercial. 
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Et voici que Babe, l'unique représentant de la race porcine à savoir conduire un troupeau de moutons, précipite par maladresse le brave M. Hoggett au fond du puits. Le malheureux est désormais immobilisé et Mme Hoggett se dépense sans compter pour soigner son époux et assurer la marche de la maison. Malgré ses soins, la ferme périclite et la banque la menace d'une saisie. La paysanne décide alors d'engager Babe dans une nouvelle compétition qui leur rapportera l'argent indispensable. Rassemblant tout leur courage, Babe et sa maîtresse partent pour la ville.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Babe: Pig in the City
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Elizabeth Daily (VF : Barbara Delsol) : Babe (voix)
 James Cromwell (VF : Jean-Pierre Moulin) : Arthur Hoggett
@@ -642,7 +660,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Christine Cavanaugh, qui a joué Babe dans le premier film, a été approchée pour reprendre son rôle, mais a refusé lorsque les négociations contractuelles ont échoué. Cavanaugh a finalement été remplacée par Elizabeth Daily. Tous les jours. Le réalisateur du premier film à succès, Chris Noonan, n'a pas été impliqué dans le projet ; les fonctions de réalisateur ont été assumées par George Miller et Noonan n'aurait même pas été invité à la première projection australienne.
 Avant la sortie en salle du film, il a été initialement classé PG par la MPAA. Les spots télévisés de la sortie en salle du film mentionnaient cette note, tout comme une affiche promotionnelle. Au moment où le film est sorti en salles, il avait été réévalué comme G en raison du fait que le film a été réédité et soumis à nouveau pour examen.
@@ -677,6 +697,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
